--- a/tests/data/data.xlsx
+++ b/tests/data/data.xlsx
@@ -8,15 +8,20 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>col1</t>
   </si>
@@ -30,19 +35,16 @@
     <t>value11</t>
   </si>
   <si>
+    <t>value32</t>
+  </si>
+  <si>
+    <t>value12</t>
+  </si>
+  <si>
+    <t>col4</t>
+  </si>
+  <si>
     <t>value21</t>
-  </si>
-  <si>
-    <t>value32</t>
-  </si>
-  <si>
-    <t>value12</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>col4</t>
   </si>
   <si>
     <t>value31</t>
@@ -163,15 +165,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -189,22 +191,36 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="false">A2</f>
+        <v>value11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">IF(A4="value11", 8, B4)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -231,7 +247,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,7 +261,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,38 +269,38 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
